--- a/excel/네이버TV/naver_tv.xlsx
+++ b/excel/네이버TV/naver_tv.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>제목,</t>
+          <t>제목</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -456,12 +456,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>재생 수104,104</t>
+          <t>재생 수106,824</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>좋아요 수84</t>
+          <t>좋아요 수88</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>재생 수48,549</t>
+          <t>재생 수49,745</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -500,12 +500,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>재생 수25,935</t>
+          <t>재생 수26,553</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>좋아요 수98</t>
+          <t>좋아요 수103</t>
         </is>
       </c>
     </row>
